--- a/SQL/Fetch data from a query to excel/Fetched data.xlsx
+++ b/SQL/Fetch data from a query to excel/Fetched data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66db50fed135b7d/Dokumentumok/Codes/Quick-access/SQL/Fetch data from a query to excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0A27D362D165EE6EE31D5C5556B1DE7926D41519" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CE0848C-C998-4BAC-AC06-E7B0174F7D0A}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_FD3D0EBDD369266FE31D5C5556B1DE79A65214BD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{78209EF3-6006-4205-A7D8-CF3A0D7AFFE5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -339,7 +339,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
